--- a/templete.xlsx
+++ b/templete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anson/Desktop/DecodeCure/Leave_report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1395AF-7528-134C-ABFD-263D130C9310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11895CC0-ECFD-2B4D-9DBF-5D4F1845F468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="17340" xr2:uid="{E68CAE23-7CD9-0E42-95FF-BF002BCDA8E7}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" xr2:uid="{E68CAE23-7CD9-0E42-95FF-BF002BCDA8E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Anson" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,6 +191,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD8D8D8"/>
         <bgColor rgb="FFD8D8D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -262,7 +268,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -287,6 +293,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -604,7 +616,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -648,47 +660,65 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="7">
-        <v>2022</v>
-      </c>
-      <c r="C8" s="7">
-        <v>2023</v>
-      </c>
-      <c r="D8" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E8" s="7">
-        <v>2025</v>
-      </c>
-      <c r="F8" s="7">
-        <v>2026</v>
-      </c>
-      <c r="G8" s="7">
-        <v>2027</v>
-      </c>
-      <c r="H8" s="7">
-        <v>2028</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2029</v>
-      </c>
-      <c r="J8" s="7">
-        <v>2030</v>
+      <c r="B8" s="16">
+        <v>44652</v>
+      </c>
+      <c r="C8" s="16">
+        <v>45017</v>
+      </c>
+      <c r="D8" s="16">
+        <v>45383</v>
+      </c>
+      <c r="E8" s="16">
+        <v>45748</v>
+      </c>
+      <c r="F8" s="16">
+        <v>46113</v>
+      </c>
+      <c r="G8" s="16">
+        <v>46478</v>
+      </c>
+      <c r="H8" s="16">
+        <v>46844</v>
+      </c>
+      <c r="I8" s="16">
+        <v>47209</v>
+      </c>
+      <c r="J8" s="16">
+        <v>47574</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="B9" s="7">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>3</v>
+      </c>
+      <c r="F9" s="7">
+        <v>4</v>
+      </c>
+      <c r="G9" s="7">
+        <v>5</v>
+      </c>
+      <c r="H9" s="7">
+        <v>6</v>
+      </c>
+      <c r="I9" s="7">
+        <v>7</v>
+      </c>
+      <c r="J9" s="7">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
@@ -722,39 +752,67 @@
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="7">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="7">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -768,17 +826,31 @@
       <c r="A15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="7">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4"/>
@@ -1135,7 +1207,7 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15"/>
@@ -2181,7 +2253,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I34" s="5">
         <v>2</v>
@@ -2247,7 +2319,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I36" s="5">
         <v>2</v>
